--- a/ExcelFile/Spice_Jet_App_Testing.xlsx
+++ b/ExcelFile/Spice_Jet_App_Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91936\eclipse-workspace\Spice_Jet\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE7504B-0766-4058-9E40-634D80C3C50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A71F853-D738-4EC1-95A1-E67EE6D7B60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Validating with InValid UserName(Email) and InValid Password</t>
+  </si>
+  <si>
+    <t>Qatar</t>
   </si>
 </sst>
 </file>
@@ -580,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -636,7 +639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
@@ -873,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C546B270-447D-4A14-9739-BD0A1424725B}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,7 +967,7 @@
         <v>9551231008</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>41</v>
